--- a/MMA_Merchandising/MMA_Merchandising.xlsx
+++ b/MMA_Merchandising/MMA_Merchandising.xlsx
@@ -1,17 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21001"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5028F37A-961C-48D8-A8BC-33D48A9E7996}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B7858D5-8EA3-486B-98A6-0CBEA913EBF3}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" firstSheet="1" activeTab="1" xr2:uid="{65B03DFA-846A-4EE9-BFD9-C2885113F2BF}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" firstSheet="1" activeTab="5" xr2:uid="{65B03DFA-846A-4EE9-BFD9-C2885113F2BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Distribution Point" sheetId="11" r:id="rId1"/>
     <sheet name="Channel Products" sheetId="3" r:id="rId2"/>
     <sheet name="Chiller Products" sheetId="7" r:id="rId3"/>
     <sheet name="Slider Options" sheetId="12" r:id="rId4"/>
+    <sheet name="Shop Actions" sheetId="13" r:id="rId5"/>
+    <sheet name="Audit Questions" sheetId="14" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Channel Products'!$A$1:$T$1366</definedName>
@@ -22,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5979" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6065" uniqueCount="248">
   <si>
     <t>Flavoured Milk</t>
   </si>
@@ -719,12 +721,60 @@
   <si>
     <t>Big General Store</t>
   </si>
+  <si>
+    <t>Logout</t>
+  </si>
+  <si>
+    <t>Shop Actions</t>
+  </si>
+  <si>
+    <t>Start Working</t>
+  </si>
+  <si>
+    <t>Shop Fascia</t>
+  </si>
+  <si>
+    <t>Get Direction</t>
+  </si>
+  <si>
+    <t>Get Routes</t>
+  </si>
+  <si>
+    <t>Question Category</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>Competition Tracking</t>
+  </si>
+  <si>
+    <t>Juice/Beverage multi serve 1000/1500ml (any of NFV, Nesfruta, Shezan, Polly, Fruitien, Coke, Pepsi)</t>
+  </si>
+  <si>
+    <t>Nutrition 150/175/200gm (any of lactogen, lactogrow, cerelac)</t>
+  </si>
+  <si>
+    <t>UHT 1000ml (any of Milkpak, Olpers, Nurpur, Goodmilk, Haleeb)</t>
+  </si>
+  <si>
+    <t>UHT portion packs 250/225/200ml (any of Milkpak, Olpers, Nurpur, Goodmilk, Haleeb)</t>
+  </si>
+  <si>
+    <t>Liquid Tea creamers (any size of Everyday UHT, Tarang, Qudrat, Dostea, Tea Max)</t>
+  </si>
+  <si>
+    <t>Cream (any size of Milkpak Cream, Olpers Cream)</t>
+  </si>
+  <si>
+    <t>Juice/Beverage single serve 330/300/250/200ml (any of NFV, Nesfruta, Shezan, Polly, Fruitien, Coke, Pepsi)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -751,6 +801,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -987,7 +1045,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1065,11 +1123,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1147,6 +1216,10 @@
     <xf numFmtId="0" fontId="0" fillId="36" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="38" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1563,8 +1636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T1366"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E1344" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E1350" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="C1245" sqref="C1245:C1255"/>
@@ -69078,11 +69151,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC505BDA-4272-4758-9DA2-F72D83B99B5B}">
-  <dimension ref="A1:A13"/>
+  <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -69155,6 +69228,138 @@
         <v>205</v>
       </c>
     </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="71" t="s">
+        <v>232</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32B50526-B78F-4D8E-ADB8-BC584EA6AF47}">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="72" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="37" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="37" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="37" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="37" t="s">
+        <v>237</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94F3C5A3-D5BE-4ACF-B6DB-094F3337EE5F}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.140625" customWidth="1"/>
+    <col min="2" max="2" width="98" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="72" t="s">
+        <v>238</v>
+      </c>
+      <c r="B1" s="72" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="50" t="s">
+        <v>240</v>
+      </c>
+      <c r="B2" s="69" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="50" t="s">
+        <v>240</v>
+      </c>
+      <c r="B3" s="69" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="50" t="s">
+        <v>240</v>
+      </c>
+      <c r="B4" s="69" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="50" t="s">
+        <v>240</v>
+      </c>
+      <c r="B5" s="69" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="50" t="s">
+        <v>240</v>
+      </c>
+      <c r="B6" s="69" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="50" t="s">
+        <v>240</v>
+      </c>
+      <c r="B7" s="69" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="50" t="s">
+        <v>240</v>
+      </c>
+      <c r="B8" s="69" t="s">
+        <v>247</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/MMA_Merchandising/MMA_Merchandising.xlsx
+++ b/MMA_Merchandising/MMA_Merchandising.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21001"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B7858D5-8EA3-486B-98A6-0CBEA913EBF3}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A0807AD-36CF-4740-846F-0E7F5CDF4E7B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" firstSheet="1" activeTab="5" xr2:uid="{65B03DFA-846A-4EE9-BFD9-C2885113F2BF}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6065" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6045" uniqueCount="252">
   <si>
     <t>Flavoured Milk</t>
   </si>
@@ -768,6 +768,18 @@
   </si>
   <si>
     <t>Juice/Beverage single serve 330/300/250/200ml (any of NFV, Nesfruta, Shezan, Polly, Fruitien, Coke, Pepsi)</t>
+  </si>
+  <si>
+    <t>Take Picture</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Option</t>
   </si>
 </sst>
 </file>
@@ -69284,80 +69296,228 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94F3C5A3-D5BE-4ACF-B6DB-094F3337EE5F}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.140625" customWidth="1"/>
     <col min="2" max="2" width="98" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="72" t="s">
         <v>238</v>
       </c>
       <c r="B1" s="72" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="72" t="s">
+        <v>251</v>
+      </c>
+      <c r="D1" s="72" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="50" t="s">
         <v>240</v>
       </c>
       <c r="B2" s="69" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" s="69" t="s">
+        <v>249</v>
+      </c>
+      <c r="D2" s="69" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="50" t="s">
         <v>240</v>
       </c>
       <c r="B3" s="69" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+      <c r="C3" s="69" t="s">
+        <v>250</v>
+      </c>
+      <c r="D3" s="69" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="50" t="s">
         <v>240</v>
       </c>
       <c r="B4" s="69" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+      <c r="C4" s="69" t="s">
+        <v>249</v>
+      </c>
+      <c r="D4" s="69" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="50" t="s">
         <v>240</v>
       </c>
       <c r="B5" s="69" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+      <c r="C5" s="69" t="s">
+        <v>250</v>
+      </c>
+      <c r="D5" s="69" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="50" t="s">
         <v>240</v>
       </c>
       <c r="B6" s="69" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+      <c r="C6" s="69" t="s">
+        <v>249</v>
+      </c>
+      <c r="D6" s="69" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="50" t="s">
         <v>240</v>
       </c>
       <c r="B7" s="69" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+      <c r="C7" s="69" t="s">
+        <v>250</v>
+      </c>
+      <c r="D7" s="69" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="50" t="s">
         <v>240</v>
       </c>
       <c r="B8" s="69" t="s">
+        <v>244</v>
+      </c>
+      <c r="C8" s="69" t="s">
+        <v>249</v>
+      </c>
+      <c r="D8" s="69" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="50" t="s">
+        <v>240</v>
+      </c>
+      <c r="B9" s="69" t="s">
+        <v>244</v>
+      </c>
+      <c r="C9" s="69" t="s">
+        <v>250</v>
+      </c>
+      <c r="D9" s="69" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="50" t="s">
+        <v>240</v>
+      </c>
+      <c r="B10" s="69" t="s">
+        <v>245</v>
+      </c>
+      <c r="C10" s="69" t="s">
+        <v>249</v>
+      </c>
+      <c r="D10" s="69" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="50" t="s">
+        <v>240</v>
+      </c>
+      <c r="B11" s="69" t="s">
+        <v>245</v>
+      </c>
+      <c r="C11" s="69" t="s">
+        <v>250</v>
+      </c>
+      <c r="D11" s="69" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="50" t="s">
+        <v>240</v>
+      </c>
+      <c r="B12" s="69" t="s">
+        <v>246</v>
+      </c>
+      <c r="C12" s="69" t="s">
+        <v>249</v>
+      </c>
+      <c r="D12" s="69" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="50" t="s">
+        <v>240</v>
+      </c>
+      <c r="B13" s="69" t="s">
+        <v>246</v>
+      </c>
+      <c r="C13" s="69" t="s">
+        <v>250</v>
+      </c>
+      <c r="D13" s="69" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="50" t="s">
+        <v>240</v>
+      </c>
+      <c r="B14" s="69" t="s">
         <v>247</v>
+      </c>
+      <c r="C14" s="69" t="s">
+        <v>249</v>
+      </c>
+      <c r="D14" s="69" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="50" t="s">
+        <v>240</v>
+      </c>
+      <c r="B15" s="69" t="s">
+        <v>247</v>
+      </c>
+      <c r="C15" s="69" t="s">
+        <v>250</v>
+      </c>
+      <c r="D15" s="69" t="s">
+        <v>249</v>
       </c>
     </row>
   </sheetData>

--- a/MMA_Merchandising/MMA_Merchandising.xlsx
+++ b/MMA_Merchandising/MMA_Merchandising.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21001"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A0807AD-36CF-4740-846F-0E7F5CDF4E7B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6937E2E-A5AF-42A9-AE36-8F491BA4FC2D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" firstSheet="1" activeTab="5" xr2:uid="{65B03DFA-846A-4EE9-BFD9-C2885113F2BF}"/>
   </bookViews>
@@ -13,7 +13,7 @@
     <sheet name="Chiller Products" sheetId="7" r:id="rId3"/>
     <sheet name="Slider Options" sheetId="12" r:id="rId4"/>
     <sheet name="Shop Actions" sheetId="13" r:id="rId5"/>
-    <sheet name="Audit Questions" sheetId="14" r:id="rId6"/>
+    <sheet name="Survey Questions" sheetId="14" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Channel Products'!$A$1:$T$1366</definedName>
@@ -69299,7 +69299,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/MMA_Merchandising/MMA_Merchandising.xlsx
+++ b/MMA_Merchandising/MMA_Merchandising.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24E395A7-8FA6-400B-BC5E-8DF83192671A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A5D2B1E-DB8B-414F-948B-57074E8E2B07}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" firstSheet="3" activeTab="5" xr2:uid="{65B03DFA-846A-4EE9-BFD9-C2885113F2BF}"/>
   </bookViews>

--- a/MMA_Merchandising/MMA_Merchandising.xlsx
+++ b/MMA_Merchandising/MMA_Merchandising.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A5D2B1E-DB8B-414F-948B-57074E8E2B07}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BC40A84-EF00-4648-BAB0-AAEAC8CC3473}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" firstSheet="3" activeTab="5" xr2:uid="{65B03DFA-846A-4EE9-BFD9-C2885113F2BF}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" firstSheet="1" activeTab="1" xr2:uid="{65B03DFA-846A-4EE9-BFD9-C2885113F2BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Distribution Point" sheetId="11" r:id="rId1"/>
@@ -1442,9 +1442,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FE23399-18E8-4586-AB6F-57ACC320652C}">
   <dimension ref="A1:T1634"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A282" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1546" sqref="B1546"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1637" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D1646" sqref="D1646"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6025,7 +6025,7 @@
         <v>19</v>
       </c>
       <c r="C120" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="D120" t="s">
         <v>192</v>
@@ -6063,7 +6063,7 @@
         <v>19</v>
       </c>
       <c r="C121" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="D121" t="s">
         <v>193</v>
@@ -8419,7 +8419,7 @@
         <v>19</v>
       </c>
       <c r="C183" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="D183" t="s">
         <v>192</v>
@@ -8457,7 +8457,7 @@
         <v>19</v>
       </c>
       <c r="C184" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="D184" t="s">
         <v>193</v>
@@ -14347,7 +14347,7 @@
         <v>19</v>
       </c>
       <c r="C339" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="D339" t="s">
         <v>192</v>
@@ -14385,7 +14385,7 @@
         <v>19</v>
       </c>
       <c r="C340" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="D340" t="s">
         <v>193</v>
@@ -18793,7 +18793,7 @@
         <v>19</v>
       </c>
       <c r="C456" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="D456" t="s">
         <v>192</v>
@@ -18831,7 +18831,7 @@
         <v>19</v>
       </c>
       <c r="C457" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="D457" t="s">
         <v>193</v>
@@ -23505,7 +23505,7 @@
         <v>19</v>
       </c>
       <c r="C580" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="D580" t="s">
         <v>192</v>
@@ -23543,7 +23543,7 @@
         <v>19</v>
       </c>
       <c r="C581" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="D581" t="s">
         <v>193</v>
@@ -30877,7 +30877,7 @@
         <v>19</v>
       </c>
       <c r="C774" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="D774" t="s">
         <v>192</v>
@@ -30915,7 +30915,7 @@
         <v>19</v>
       </c>
       <c r="C775" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="D775" t="s">
         <v>193</v>
@@ -34373,7 +34373,7 @@
         <v>19</v>
       </c>
       <c r="C866" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="D866" t="s">
         <v>192</v>
@@ -34411,7 +34411,7 @@
         <v>19</v>
       </c>
       <c r="C867" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="D867" t="s">
         <v>193</v>
@@ -35969,7 +35969,7 @@
         <v>19</v>
       </c>
       <c r="C908" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="D908" t="s">
         <v>192</v>
@@ -36007,7 +36007,7 @@
         <v>19</v>
       </c>
       <c r="C909" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="D909" t="s">
         <v>193</v>
@@ -43531,7 +43531,7 @@
         <v>19</v>
       </c>
       <c r="C1107" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="D1107" t="s">
         <v>192</v>
@@ -43569,7 +43569,7 @@
         <v>19</v>
       </c>
       <c r="C1108" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="D1108" t="s">
         <v>193</v>
@@ -48129,7 +48129,7 @@
         <v>19</v>
       </c>
       <c r="C1228" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="D1228" t="s">
         <v>192</v>
@@ -48167,7 +48167,7 @@
         <v>19</v>
       </c>
       <c r="C1229" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="D1229" t="s">
         <v>193</v>
@@ -51131,7 +51131,7 @@
         <v>19</v>
       </c>
       <c r="C1307" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="D1307" t="s">
         <v>192</v>
@@ -51169,7 +51169,7 @@
         <v>19</v>
       </c>
       <c r="C1308" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="D1308" t="s">
         <v>193</v>
@@ -54931,7 +54931,7 @@
         <v>19</v>
       </c>
       <c r="C1407" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="D1407" t="s">
         <v>192</v>
@@ -54969,7 +54969,7 @@
         <v>19</v>
       </c>
       <c r="C1408" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="D1408" t="s">
         <v>193</v>
@@ -58389,7 +58389,7 @@
         <v>19</v>
       </c>
       <c r="C1498" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="D1498" t="s">
         <v>192</v>
@@ -58427,7 +58427,7 @@
         <v>19</v>
       </c>
       <c r="C1499" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="D1499" t="s">
         <v>193</v>
@@ -62607,7 +62607,7 @@
         <v>19</v>
       </c>
       <c r="C1609" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="D1609" t="s">
         <v>192</v>
@@ -62645,7 +62645,7 @@
         <v>19</v>
       </c>
       <c r="C1610" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="D1610" t="s">
         <v>193</v>
@@ -68350,7 +68350,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94F3C5A3-D5BE-4ACF-B6DB-094F3337EE5F}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>

--- a/MMA_Merchandising/MMA_Merchandising.xlsx
+++ b/MMA_Merchandising/MMA_Merchandising.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BC40A84-EF00-4648-BAB0-AAEAC8CC3473}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA702510-E0CA-4513-A021-B8AB42C85619}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" firstSheet="1" activeTab="1" xr2:uid="{65B03DFA-846A-4EE9-BFD9-C2885113F2BF}"/>
   </bookViews>
@@ -1443,8 +1443,8 @@
   <dimension ref="A1:T1634"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1637" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1646" sqref="D1646"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -63597,7 +63597,7 @@
   <dimension ref="A1:I158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C153" sqref="C153"/>
     </sheetView>
   </sheetViews>
